--- a/results/I3_N5_M2_T30_C150_DepCentral_s0_P3_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s0_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1837.063652301016</v>
+        <v>1317.476866302078</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.00599980354309082</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.25725746793464</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.946004172832028</v>
+        <v>9.149584959638124</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.622399005906006</v>
+        <v>3.568767294178761</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1326.690000000008</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.4400000000001</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.8863479000213</v>
+        <v>13.18449368032031</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.201656242593717</v>
+        <v>24.35124120223184</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>26.72863473297091</v>
       </c>
     </row>
     <row r="7">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.79834375740629</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.72327375283629</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1018,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1032,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1046,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1113,15 +1113,99 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1224,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>138.4050000000004</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
@@ -1235,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.36</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
@@ -1246,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>162.115</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10">
@@ -1257,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>164.315</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
@@ -1268,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>160.24</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>249.8050000000012</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -1290,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>278.4250000000008</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -1301,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>278.8300000000008</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -1312,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>289.5250000000008</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -1323,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>282.8700000000008</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -1334,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>72.47999999999935</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18">
@@ -1345,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>77.40999999999934</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
@@ -1356,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.15000000000001</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
@@ -1367,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>74.90999999999934</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
@@ -1378,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>75.71999999999935</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
@@ -1389,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>156.56</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23">
@@ -1400,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.25</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -1411,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>161.41</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25">
@@ -1422,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.73</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
@@ -1433,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>155.9399999999993</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
@@ -1444,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.22999999999979</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1455,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999978</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -1466,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999978</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -1477,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999977</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -1488,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999977</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1499,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>156.56</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
@@ -1510,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.25</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
@@ -1521,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.41</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35">
@@ -1532,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.73</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36">
@@ -1543,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>155.9399999999993</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
@@ -1554,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>249.8050000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1565,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>278.4250000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1576,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>278.8300000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1587,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>289.5250000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1598,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>282.8700000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.560000000000002</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -1656,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
@@ -1667,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -1678,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.72999999999999</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
@@ -1689,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.939999999999344</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -1700,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>99.80500000000123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1711,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>128.4250000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1722,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>128.8300000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1733,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>139.5250000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1744,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>132.8700000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1846,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1857,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1868,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1879,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1890,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1901,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1912,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1923,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1934,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1945,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1956,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1967,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1978,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1989,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2000,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2011,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2022,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2033,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2044,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2055,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2099,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2110,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2121,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2132,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2140,10 +2224,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2151,10 +2235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2162,10 +2246,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2173,10 +2257,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2184,10 +2268,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2195,10 +2279,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2209,7 +2293,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2220,7 +2304,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2231,7 +2315,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2242,9 +2326,20 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
